--- a/Math/马虎大意问题点总结.xlsx
+++ b/Math/马虎大意问题点总结.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>错因</t>
   </si>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>第八周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,10 +519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -527,7 +535,7 @@
     <col min="9" max="9" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -555,8 +563,14 @@
       <c r="I1" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="16.5">
+      <c r="J1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2">
         <v>0</v>
       </c>
@@ -584,8 +598,14 @@
       <c r="I2" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="16.5">
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -613,8 +633,14 @@
       <c r="I3" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="16.5">
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4">
         <v>2</v>
       </c>
@@ -642,8 +668,14 @@
       <c r="I4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="16.5">
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5">
       <c r="A5">
         <v>3</v>
       </c>
@@ -671,8 +703,14 @@
       <c r="I5" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="16.5">
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.5">
       <c r="A6">
         <v>4</v>
       </c>
@@ -700,8 +738,14 @@
       <c r="I6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="16.5">
+      <c r="J6" s="2">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="16.5">
       <c r="A7">
         <v>5</v>
       </c>
@@ -729,8 +773,14 @@
       <c r="I7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="16.5">
+      <c r="J7" s="2">
+        <v>6</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5">
       <c r="A8">
         <v>6</v>
       </c>
@@ -758,8 +808,14 @@
       <c r="I8" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="16.5">
+      <c r="J8" s="2">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5">
       <c r="A9">
         <v>7</v>
       </c>
@@ -787,8 +843,14 @@
       <c r="I9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="16.5">
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5">
       <c r="A10">
         <v>8</v>
       </c>
@@ -816,8 +878,14 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="16.5">
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11">
         <v>9</v>
       </c>
@@ -845,8 +913,14 @@
       <c r="I11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="16.5">
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5">
       <c r="A12">
         <v>10</v>
       </c>
@@ -874,8 +948,14 @@
       <c r="I12" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="16.5">
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5">
       <c r="A13">
         <v>11</v>
       </c>
@@ -903,8 +983,14 @@
       <c r="I13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="16.5">
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5">
       <c r="A14">
         <v>12</v>
       </c>
@@ -932,37 +1018,50 @@
       <c r="I14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>27</v>
       </c>
       <c r="D15">
-        <f>SUM(D2:D14)</f>
+        <f t="shared" ref="D15:J15" si="0">SUM(D2:D14)</f>
         <v>54</v>
       </c>
       <c r="E15">
-        <f>SUM(E2:E14)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="F15">
-        <f>SUM(F2:F14)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="G15">
-        <f>SUM(G2:G14)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H15">
-        <f>SUM(H2:H14)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I15">
-        <f>SUM(I2:I14)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="16.5">
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5">
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
